--- a/Final data-predictions/all-subjects-prediction.xlsx
+++ b/Final data-predictions/all-subjects-prediction.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master\2021-2022_1\SE\project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305BB37A-FA75-49E4-86CC-A3E7DCA85A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9E62BDB3-35A9-45D1-8D01-209613A2FEC0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ML" sheetId="1" r:id="rId1"/>
@@ -121,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,37 +171,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EBBAC13-6E3C-41F9-9D52-FE4A16523098}" name="Table1" displayName="Table1" ref="A1:I102" totalsRowShown="0">
-  <autoFilter ref="A1:I102" xr:uid="{7EBBAC13-6E3C-41F9-9D52-FE4A16523098}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I102" totalsRowShown="0">
+  <autoFilter ref="A1:I102"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AD58E611-9FA0-4825-BF71-F7DE7E0EE586}" name="SI_ID"/>
-    <tableColumn id="2" xr3:uid="{29D52079-1CF2-4997-A91C-2217326F6BD8}" name="avg rank"/>
-    <tableColumn id="3" xr3:uid="{0DF78B22-20F5-4E8F-BAD7-603754F01EBD}" name="Sex"/>
-    <tableColumn id="4" xr3:uid="{C9C03EC1-B0D9-4619-8742-2C3E25829682}" name="Probability &amp; Statistics 1"/>
-    <tableColumn id="5" xr3:uid="{12D8B51A-A2A8-41F5-8B46-90A0F660EB0E}" name="Calculus 1"/>
-    <tableColumn id="6" xr3:uid="{246C0D04-7A6D-4E73-A209-142EA8494E6A}" name="C++"/>
-    <tableColumn id="7" xr3:uid="{8166283E-5440-4066-B77F-D634E8ECE117}" name="Object Oriented Programming 1"/>
-    <tableColumn id="8" xr3:uid="{CBF049E8-2194-4BB2-AB21-02F7A21E7257}" name="Machine Learning"/>
-    <tableColumn id="9" xr3:uid="{2FB55DE5-A458-42F2-95D7-A8B8DBD6D0FC}" name="Predicted Result"/>
+    <tableColumn id="1" name="SI_ID"/>
+    <tableColumn id="2" name="avg rank"/>
+    <tableColumn id="3" name="Sex"/>
+    <tableColumn id="4" name="Probability &amp; Statistics 1"/>
+    <tableColumn id="5" name="Calculus 1"/>
+    <tableColumn id="6" name="C++"/>
+    <tableColumn id="7" name="Object Oriented Programming 1"/>
+    <tableColumn id="8" name="Machine Learning"/>
+    <tableColumn id="9" name="Predicted Result"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFA43B99-A1E2-4D65-B2CF-153976593244}" name="Table13" displayName="Table13" ref="A1:J102" totalsRowShown="0">
-  <autoFilter ref="A1:J102" xr:uid="{FFA43B99-A1E2-4D65-B2CF-153976593244}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J102" totalsRowShown="0">
+  <autoFilter ref="A1:J102"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0E78C7C0-923F-4987-BBE3-A664BC9E0543}" name="SI_ID"/>
-    <tableColumn id="2" xr3:uid="{516E7A39-397E-4E06-960D-9F29B38DF492}" name="avg rank"/>
-    <tableColumn id="3" xr3:uid="{0F26651F-8239-4F54-8525-990C0548D7CF}" name="Sex"/>
-    <tableColumn id="4" xr3:uid="{D1B37E06-9D56-457B-AB1B-E90B1E13991F}" name="C++"/>
-    <tableColumn id="5" xr3:uid="{9944B9FE-2F49-4CE1-97C9-98AC4D87C663}" name="Database"/>
-    <tableColumn id="6" xr3:uid="{196A3887-C69A-487B-B9C3-E409CB9F32E9}" name="Object Oriented Programming 1"/>
-    <tableColumn id="7" xr3:uid="{20CEF739-1220-4DDF-A071-D7CA9902060D}" name="Data Structures"/>
-    <tableColumn id="8" xr3:uid="{60E4A93F-FE7F-4C1A-9857-FD37027C5311}" name="Algorithms"/>
-    <tableColumn id="9" xr3:uid="{D80B829B-935D-4924-A7FD-18CCDEC27753}" name="OBJECT ORIENTED PROGRAMING (2)"/>
-    <tableColumn id="10" xr3:uid="{D938D3BD-319D-4391-BB17-3D3DE710789F}" name="Prediction" dataDxfId="0"/>
+    <tableColumn id="1" name="SI_ID"/>
+    <tableColumn id="2" name="avg rank"/>
+    <tableColumn id="3" name="Sex"/>
+    <tableColumn id="4" name="C++"/>
+    <tableColumn id="5" name="Database"/>
+    <tableColumn id="6" name="Object Oriented Programming 1"/>
+    <tableColumn id="7" name="Data Structures"/>
+    <tableColumn id="8" name="Algorithms"/>
+    <tableColumn id="9" name="OBJECT ORIENTED PROGRAMING (2)"/>
+    <tableColumn id="10" name="Prediction" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -256,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -308,7 +302,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -502,28 +496,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AF7758-6BBD-4301-9454-8B8781136B25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>200710633</v>
       </c>
@@ -581,7 +576,7 @@
         <v>88.194486830506705</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200810347</v>
       </c>
@@ -610,7 +605,7 @@
         <v>79.983252048658201</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200810097</v>
       </c>
@@ -639,7 +634,7 @@
         <v>80.071558800078805</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200920109</v>
       </c>
@@ -668,7 +663,7 @@
         <v>95.730154166824093</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200710595</v>
       </c>
@@ -697,7 +692,7 @@
         <v>92.238159463864307</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>200830011</v>
       </c>
@@ -726,7 +721,7 @@
         <v>81.418990929554894</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>200710056</v>
       </c>
@@ -755,7 +750,7 @@
         <v>81.923585283143296</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>200811419</v>
       </c>
@@ -784,7 +779,7 @@
         <v>94.591719104911306</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>200710612</v>
       </c>
@@ -813,7 +808,7 @@
         <v>91.1622686713539</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200711085</v>
       </c>
@@ -842,7 +837,7 @@
         <v>85.871926350924198</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200710203</v>
       </c>
@@ -871,7 +866,7 @@
         <v>79.198538737228205</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200810151</v>
       </c>
@@ -900,7 +895,7 @@
         <v>79.130055422243998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>201420182</v>
       </c>
@@ -929,7 +924,7 @@
         <v>93.065489170958102</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>201510338</v>
       </c>
@@ -958,7 +953,7 @@
         <v>89.066770961139198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>201410614</v>
       </c>
@@ -987,7 +982,7 @@
         <v>89.765244620995006</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200710831</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>79.843192569737397</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>200811521</v>
       </c>
@@ -1045,7 +1040,7 @@
         <v>79.505134527023699</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>201420124</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>80.407991252117199</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>201410929</v>
       </c>
@@ -1103,7 +1098,7 @@
         <v>80.582215525410504</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200920062</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>80.748233596466605</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200811348</v>
       </c>
@@ -1161,7 +1156,7 @@
         <v>93.851288250962398</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201010139</v>
       </c>
@@ -1190,7 +1185,7 @@
         <v>93.515527764981798</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>201420170</v>
       </c>
@@ -1219,7 +1214,7 @@
         <v>89.806643104127801</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>200920112</v>
       </c>
@@ -1248,7 +1243,7 @@
         <v>79.407382078552303</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>200911715</v>
       </c>
@@ -1277,7 +1272,7 @@
         <v>78.336476707006199</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>200920249</v>
       </c>
@@ -1306,7 +1301,7 @@
         <v>78.966117215521507</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201311270</v>
       </c>
@@ -1335,7 +1330,7 @@
         <v>80.5227236338186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200811833</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>92.729075607779194</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200812224</v>
       </c>
@@ -1393,7 +1388,7 @@
         <v>78.630252292238893</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201220213</v>
       </c>
@@ -1422,7 +1417,7 @@
         <v>90.285846394336502</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201220692</v>
       </c>
@@ -1451,7 +1446,7 @@
         <v>94.620533964740204</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200810937</v>
       </c>
@@ -1480,7 +1475,7 @@
         <v>77.615519453137495</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200920326</v>
       </c>
@@ -1509,7 +1504,7 @@
         <v>80.646321419327904</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200810407</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>80.084728840997798</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201211200</v>
       </c>
@@ -1567,7 +1562,7 @@
         <v>93.977070338107396</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201411002</v>
       </c>
@@ -1596,7 +1591,7 @@
         <v>92.017781743360601</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201510279</v>
       </c>
@@ -1625,7 +1620,7 @@
         <v>93.0025734829171</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200811762</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>79.051258334034301</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>200910278</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>89.209324106910202</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200910517</v>
       </c>
@@ -1712,7 +1707,7 @@
         <v>80.082866669063705</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201320527</v>
       </c>
@@ -1741,7 +1736,7 @@
         <v>94.241617260994801</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200811577</v>
       </c>
@@ -1770,7 +1765,7 @@
         <v>79.437323178097301</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200820550</v>
       </c>
@@ -1799,7 +1794,7 @@
         <v>79.944887054476496</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201410667</v>
       </c>
@@ -1828,7 +1823,7 @@
         <v>94.526205312718005</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201510766</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>81.961628147623401</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200820111</v>
       </c>
@@ -1886,7 +1881,7 @@
         <v>91.273626545543294</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201111621</v>
       </c>
@@ -1915,7 +1910,7 @@
         <v>91.474263684630202</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201011480</v>
       </c>
@@ -1944,7 +1939,7 @@
         <v>95.821212748636299</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200810473</v>
       </c>
@@ -1973,7 +1968,7 @@
         <v>78.318929245020399</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200812182</v>
       </c>
@@ -2002,7 +1997,7 @@
         <v>79.777006811486302</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200810964</v>
       </c>
@@ -2031,7 +2026,7 @@
         <v>91.400970257203298</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200810727</v>
       </c>
@@ -2060,7 +2055,7 @@
         <v>79.433598834228903</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200811782</v>
       </c>
@@ -2089,7 +2084,7 @@
         <v>79.5491992921052</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201420341</v>
       </c>
@@ -2118,7 +2113,7 @@
         <v>91.648705650322995</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201510479</v>
       </c>
@@ -2147,7 +2142,7 @@
         <v>89.273997529583298</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201420239</v>
       </c>
@@ -2176,7 +2171,7 @@
         <v>77.367329786359505</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201510592</v>
       </c>
@@ -2205,7 +2200,7 @@
         <v>90.798469728904394</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201410711</v>
       </c>
@@ -2234,7 +2229,7 @@
         <v>94.662064591829704</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201410827</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>89.030703523690704</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201420499</v>
       </c>
@@ -2292,7 +2287,7 @@
         <v>90.488345705357602</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201510808</v>
       </c>
@@ -2321,7 +2316,7 @@
         <v>78.611836754078297</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201510462</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>91.879606018656403</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201420355</v>
       </c>
@@ -2379,7 +2374,7 @@
         <v>78.194441801053898</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>200811641</v>
       </c>
@@ -2408,7 +2403,7 @@
         <v>90.938279862079199</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>200911498</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>90.168052817029206</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>201410238</v>
       </c>
@@ -2466,7 +2461,7 @@
         <v>92.038816967955896</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>200920101</v>
       </c>
@@ -2495,7 +2490,7 @@
         <v>90.346464525644507</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>201010496</v>
       </c>
@@ -2524,7 +2519,7 @@
         <v>79.947071356112303</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>200910735</v>
       </c>
@@ -2553,7 +2548,7 @@
         <v>81.955606247021905</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201020262</v>
       </c>
@@ -2582,7 +2577,7 @@
         <v>86.444826798239106</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201311281</v>
       </c>
@@ -2611,7 +2606,7 @@
         <v>90.851163316534894</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201210480</v>
       </c>
@@ -2640,7 +2635,7 @@
         <v>79.165886278433604</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201410184</v>
       </c>
@@ -2669,7 +2664,7 @@
         <v>78.412626402126605</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201220450</v>
       </c>
@@ -2698,7 +2693,7 @@
         <v>91.942481235555704</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201320347</v>
       </c>
@@ -2727,7 +2722,7 @@
         <v>77.300254369651199</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201011123</v>
       </c>
@@ -2756,7 +2751,7 @@
         <v>93.893812973811293</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>200920397</v>
       </c>
@@ -2785,7 +2780,7 @@
         <v>88.628217457358005</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>201410364</v>
       </c>
@@ -2814,7 +2809,7 @@
         <v>90.140759110573597</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201010780</v>
       </c>
@@ -2843,7 +2838,7 @@
         <v>91.250483749959699</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201010798</v>
       </c>
@@ -2872,7 +2867,7 @@
         <v>90.320919736025701</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>200710833</v>
       </c>
@@ -2901,7 +2896,7 @@
         <v>95.939782729303403</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200910243</v>
       </c>
@@ -2930,7 +2925,7 @@
         <v>79.455824264700595</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>200910842</v>
       </c>
@@ -2959,7 +2954,7 @@
         <v>90.6039461632339</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>201020408</v>
       </c>
@@ -2988,7 +2983,7 @@
         <v>94.805639540014695</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201110334</v>
       </c>
@@ -3017,7 +3012,7 @@
         <v>82.934262830879504</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>200811564</v>
       </c>
@@ -3046,7 +3041,7 @@
         <v>78.4474631625569</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>201410472</v>
       </c>
@@ -3075,7 +3070,7 @@
         <v>93.844140110644801</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>200810566</v>
       </c>
@@ -3104,7 +3099,7 @@
         <v>81.923585283143296</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>201410609</v>
       </c>
@@ -3133,7 +3128,7 @@
         <v>92.125715821100698</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201610602</v>
       </c>
@@ -3162,7 +3157,7 @@
         <v>79.666992869412496</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>201520430</v>
       </c>
@@ -3191,7 +3186,7 @@
         <v>93.681650273339997</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>201610471</v>
       </c>
@@ -3220,7 +3215,7 @@
         <v>90.014106253830704</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>201520201</v>
       </c>
@@ -3249,7 +3244,7 @@
         <v>89.675811629858202</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>201010508</v>
       </c>
@@ -3278,7 +3273,7 @@
         <v>91.994988784133199</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>201311122</v>
       </c>
@@ -3307,7 +3302,7 @@
         <v>89.389579098600194</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>201610689</v>
       </c>
@@ -3336,7 +3331,7 @@
         <v>90.811599298681699</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>201110326</v>
       </c>
@@ -3365,7 +3360,7 @@
         <v>79.361909415195001</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>201211581</v>
       </c>
@@ -3394,7 +3389,7 @@
         <v>91.398000734412406</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>201410728</v>
       </c>
@@ -3423,7 +3418,7 @@
         <v>79.231295633324905</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>201110281</v>
       </c>
@@ -3452,7 +3447,7 @@
         <v>91.545603267307897</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>201510696</v>
       </c>
@@ -3490,16 +3485,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5174BDF-92E9-4450-BED3-21D8896E93CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>200710633</v>
       </c>
@@ -3563,7 +3558,7 @@
         <v>92.447818560065897</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200810347</v>
       </c>
@@ -3595,7 +3590,7 @@
         <v>81.066338736671995</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200810097</v>
       </c>
@@ -3627,7 +3622,7 @@
         <v>82.640048076118106</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200920109</v>
       </c>
@@ -3659,7 +3654,7 @@
         <v>91.741630497297706</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200710595</v>
       </c>
@@ -3691,7 +3686,7 @@
         <v>93.020922491497799</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>200830011</v>
       </c>
@@ -3723,7 +3718,7 @@
         <v>80.884968267343595</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>200710056</v>
       </c>
@@ -3755,7 +3750,7 @@
         <v>81.771243235721201</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>200811419</v>
       </c>
@@ -3787,7 +3782,7 @@
         <v>96.130119208742698</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>200710612</v>
       </c>
@@ -3819,7 +3814,7 @@
         <v>92.206241303430005</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200711085</v>
       </c>
@@ -3851,7 +3846,7 @@
         <v>88.457753119762899</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200710203</v>
       </c>
@@ -3883,7 +3878,7 @@
         <v>80.589482087323802</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200810151</v>
       </c>
@@ -3915,7 +3910,7 @@
         <v>79.900573963567297</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>201420182</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>91.062080070159396</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>201510338</v>
       </c>
@@ -3979,7 +3974,7 @@
         <v>90.624369591649</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>201410614</v>
       </c>
@@ -4011,7 +4006,7 @@
         <v>90.0498556069887</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200710831</v>
       </c>
@@ -4043,7 +4038,7 @@
         <v>80.119288605390395</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>200811521</v>
       </c>
@@ -4075,7 +4070,7 @@
         <v>80.793961462232303</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>201420124</v>
       </c>
@@ -4107,7 +4102,7 @@
         <v>80.631277187074105</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>201410929</v>
       </c>
@@ -4139,7 +4134,7 @@
         <v>79.544213386333894</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200920062</v>
       </c>
@@ -4171,7 +4166,7 @@
         <v>81.932471105731395</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200811348</v>
       </c>
@@ -4203,7 +4198,7 @@
         <v>96.663958618578903</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201010139</v>
       </c>
@@ -4235,7 +4230,7 @@
         <v>92.777608001647906</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>201420170</v>
       </c>
@@ -4267,7 +4262,7 @@
         <v>95.285557628303806</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>200920112</v>
       </c>
@@ -4299,7 +4294,7 @@
         <v>80.830558884782405</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>200911715</v>
       </c>
@@ -4331,7 +4326,7 @@
         <v>78.273170220665307</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>200920249</v>
       </c>
@@ -4363,7 +4358,7 @@
         <v>78.794374605784199</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201311270</v>
       </c>
@@ -4395,7 +4390,7 @@
         <v>80.403325999909498</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200811833</v>
       </c>
@@ -4427,7 +4422,7 @@
         <v>88.983862135691595</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200812224</v>
       </c>
@@ -4459,7 +4454,7 @@
         <v>79.130930038143305</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201220213</v>
       </c>
@@ -4491,7 +4486,7 @@
         <v>90.998703152855697</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201220692</v>
       </c>
@@ -4523,7 +4518,7 @@
         <v>91.369298997003696</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200810937</v>
       </c>
@@ -4555,7 +4550,7 @@
         <v>77.869869379226898</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200920326</v>
       </c>
@@ -4587,7 +4582,7 @@
         <v>80.898604015729205</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200810407</v>
       </c>
@@ -4619,7 +4614,7 @@
         <v>78.494518421786395</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201211200</v>
       </c>
@@ -4651,7 +4646,7 @@
         <v>91.713842349141501</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201411002</v>
       </c>
@@ -4683,7 +4678,7 @@
         <v>92.775845124361297</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201510279</v>
       </c>
@@ -4715,7 +4710,7 @@
         <v>93.609765478522306</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200811762</v>
       </c>
@@ -4747,7 +4742,7 @@
         <v>78.132660802355204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>200910278</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>90.730632340715502</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200910517</v>
       </c>
@@ -4811,7 +4806,7 @@
         <v>78.172354572824105</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201320527</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>93.457969909800795</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200811577</v>
       </c>
@@ -4875,7 +4870,7 @@
         <v>80.232855893857604</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200820550</v>
       </c>
@@ -4907,7 +4902,7 @@
         <v>78.214921086217203</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201410667</v>
       </c>
@@ -4939,7 +4934,7 @@
         <v>93.192224820470699</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201510766</v>
       </c>
@@ -4971,7 +4966,7 @@
         <v>80.6981899415686</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200820111</v>
       </c>
@@ -5003,7 +4998,7 @@
         <v>92.916279938000898</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201111621</v>
       </c>
@@ -5035,7 +5030,7 @@
         <v>93.797107805153203</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201011480</v>
       </c>
@@ -5067,7 +5062,7 @@
         <v>92.847993645502399</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200810473</v>
       </c>
@@ -5099,7 +5094,7 @@
         <v>79.372579921524306</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200812182</v>
       </c>
@@ -5131,7 +5126,7 @@
         <v>82.298707814207106</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200810964</v>
       </c>
@@ -5163,7 +5158,7 @@
         <v>94.825898997138594</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200810727</v>
       </c>
@@ -5195,7 +5190,7 @@
         <v>79.613475738802506</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200811782</v>
       </c>
@@ -5227,7 +5222,7 @@
         <v>78.183629694302596</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201420341</v>
       </c>
@@ -5259,7 +5254,7 @@
         <v>90.734186313980302</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201510479</v>
       </c>
@@ -5291,7 +5286,7 @@
         <v>91.1056481298139</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201420239</v>
       </c>
@@ -5323,7 +5318,7 @@
         <v>79.814473139284402</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201510592</v>
       </c>
@@ -5355,7 +5350,7 @@
         <v>90.7671987809603</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201510696</v>
       </c>
@@ -5387,7 +5382,7 @@
         <v>89.333186556216603</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201410711</v>
       </c>
@@ -5419,7 +5414,7 @@
         <v>95.447189260895797</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201410827</v>
       </c>
@@ -5451,7 +5446,7 @@
         <v>93.558216026713197</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201420499</v>
       </c>
@@ -5483,7 +5478,7 @@
         <v>92.442584367641402</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201510808</v>
       </c>
@@ -5515,7 +5510,7 @@
         <v>81.962328812329801</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201510462</v>
       </c>
@@ -5547,7 +5542,7 @@
         <v>91.222089930113697</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201420355</v>
       </c>
@@ -5579,7 +5574,7 @@
         <v>78.327802594645107</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>200811641</v>
       </c>
@@ -5611,7 +5606,7 @@
         <v>93.215324640984207</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200911498</v>
       </c>
@@ -5643,7 +5638,7 @@
         <v>89.260972515471593</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201410238</v>
       </c>
@@ -5675,7 +5670,7 @@
         <v>93.932180362636899</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>200920101</v>
       </c>
@@ -5707,7 +5702,7 @@
         <v>93.924046994681703</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201010496</v>
       </c>
@@ -5739,7 +5734,7 @@
         <v>79.460330140442807</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>200910735</v>
       </c>
@@ -5771,7 +5766,7 @@
         <v>81.6288606428229</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201020262</v>
       </c>
@@ -5803,7 +5798,7 @@
         <v>90.085288882247198</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201311281</v>
       </c>
@@ -5835,7 +5830,7 @@
         <v>91.942982541982204</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201210480</v>
       </c>
@@ -5867,7 +5862,7 @@
         <v>77.498162061160002</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201410184</v>
       </c>
@@ -5899,7 +5894,7 @@
         <v>78.942769123356797</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201220450</v>
       </c>
@@ -5931,7 +5926,7 @@
         <v>92.842751190604503</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201320347</v>
       </c>
@@ -5963,7 +5958,7 @@
         <v>79.940707223308195</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201011123</v>
       </c>
@@ -5995,7 +5990,7 @@
         <v>94.115845939268397</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>200920397</v>
       </c>
@@ -6027,7 +6022,7 @@
         <v>89.235442801613104</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201410364</v>
       </c>
@@ -6059,7 +6054,7 @@
         <v>92.162402289309995</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201010780</v>
       </c>
@@ -6091,7 +6086,7 @@
         <v>91.490112779206996</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201010798</v>
       </c>
@@ -6123,7 +6118,7 @@
         <v>91.768391855977299</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200710833</v>
       </c>
@@ -6155,7 +6150,7 @@
         <v>94.589679655976894</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>200910243</v>
       </c>
@@ -6187,7 +6182,7 @@
         <v>80.665898981317994</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>200910842</v>
       </c>
@@ -6219,7 +6214,7 @@
         <v>86.594360134258807</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201020408</v>
       </c>
@@ -6251,7 +6246,7 @@
         <v>94.235454945323596</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201110334</v>
       </c>
@@ -6283,7 +6278,7 @@
         <v>82.180014686750795</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>200811564</v>
       </c>
@@ -6315,7 +6310,7 @@
         <v>77.481284149880906</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201410472</v>
       </c>
@@ -6347,7 +6342,7 @@
         <v>95.992777976562493</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>200810566</v>
       </c>
@@ -6379,7 +6374,7 @@
         <v>79.234924901047293</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201410609</v>
       </c>
@@ -6411,7 +6406,7 @@
         <v>91.013525140457901</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>201610602</v>
       </c>
@@ -6443,7 +6438,7 @@
         <v>77.912527844830507</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>201520430</v>
       </c>
@@ -6475,7 +6470,7 @@
         <v>94.762533108767798</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>201610471</v>
       </c>
@@ -6507,7 +6502,7 @@
         <v>89.022175261015306</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>201520201</v>
       </c>
@@ -6539,7 +6534,7 @@
         <v>91.051797409875803</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>201010508</v>
       </c>
@@ -6571,7 +6566,7 @@
         <v>90.784098589478106</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>201311122</v>
       </c>
@@ -6603,7 +6598,7 @@
         <v>89.2315614052863</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>201610689</v>
       </c>
@@ -6635,7 +6630,7 @@
         <v>91.090246737682193</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>201110326</v>
       </c>
@@ -6667,7 +6662,7 @@
         <v>80.474928865285804</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>201211581</v>
       </c>
@@ -6699,7 +6694,7 @@
         <v>90.944668528496507</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>201410728</v>
       </c>
@@ -6731,7 +6726,7 @@
         <v>81.711519560051002</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>201110281</v>
       </c>
@@ -6772,16 +6767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAC8772-5B45-46A7-B700-7D50246569AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6813,7 +6808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>200710633</v>
       </c>
@@ -6845,7 +6840,7 @@
         <v>94.550189522130097</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200810347</v>
       </c>
@@ -6877,7 +6872,7 @@
         <v>87.769671847005796</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200810097</v>
       </c>
@@ -6909,7 +6904,7 @@
         <v>89.689815435988706</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200920109</v>
       </c>
@@ -6941,7 +6936,7 @@
         <v>93.657901919252197</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200710595</v>
       </c>
@@ -6973,7 +6968,7 @@
         <v>94.537162073733498</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>200830011</v>
       </c>
@@ -7005,7 +7000,7 @@
         <v>88.541792704772504</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>200710056</v>
       </c>
@@ -7037,7 +7032,7 @@
         <v>88.206945762233005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>200811419</v>
       </c>
@@ -7069,7 +7064,7 @@
         <v>93.997032588254598</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>200710612</v>
       </c>
@@ -7101,7 +7096,7 @@
         <v>94.509656922493207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200711085</v>
       </c>
@@ -7133,7 +7128,7 @@
         <v>92.862795486378303</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200710203</v>
       </c>
@@ -7165,7 +7160,7 @@
         <v>88.565568287824604</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200810151</v>
       </c>
@@ -7197,7 +7192,7 @@
         <v>89.2603633770768</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>201420182</v>
       </c>
@@ -7229,7 +7224,7 @@
         <v>92.884577049560903</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>201510338</v>
       </c>
@@ -7261,7 +7256,7 @@
         <v>93.374524513240601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>201410614</v>
       </c>
@@ -7293,7 +7288,7 @@
         <v>91.836226849322102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200710831</v>
       </c>
@@ -7325,7 +7320,7 @@
         <v>89.531433545930398</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>200811521</v>
       </c>
@@ -7357,7 +7352,7 @@
         <v>89.084326663644902</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>201420124</v>
       </c>
@@ -7389,7 +7384,7 @@
         <v>88.605964812071704</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>201410929</v>
       </c>
@@ -7421,7 +7416,7 @@
         <v>86.817865942656596</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200920062</v>
       </c>
@@ -7453,7 +7448,7 @@
         <v>89.149693448746902</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200811348</v>
       </c>
@@ -7485,7 +7480,7 @@
         <v>93.434704507751405</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201010139</v>
       </c>
@@ -7517,7 +7512,7 @@
         <v>91.819837154175104</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>201420170</v>
       </c>
@@ -7549,7 +7544,7 @@
         <v>93.115412671958694</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>200920112</v>
       </c>
@@ -7581,7 +7576,7 @@
         <v>88.389529074980302</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>200911715</v>
       </c>
@@ -7613,7 +7608,7 @@
         <v>88.672527979737495</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>200920249</v>
       </c>
@@ -7645,7 +7640,7 @@
         <v>88.270704519269898</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201311270</v>
       </c>
@@ -7677,7 +7672,7 @@
         <v>89.083232030057005</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200811833</v>
       </c>
@@ -7709,7 +7704,7 @@
         <v>91.188474530521603</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200812224</v>
       </c>
@@ -7741,7 +7736,7 @@
         <v>88.6095613327319</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201220213</v>
       </c>
@@ -7773,7 +7768,7 @@
         <v>91.137163946046201</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201220692</v>
       </c>
@@ -7805,7 +7800,7 @@
         <v>93.394536599016305</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200810937</v>
       </c>
@@ -7837,7 +7832,7 @@
         <v>87.790103722550299</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200920326</v>
       </c>
@@ -7869,7 +7864,7 @@
         <v>89.162313596749499</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200810407</v>
       </c>
@@ -7901,7 +7896,7 @@
         <v>87.929896561633001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201211200</v>
       </c>
@@ -7933,7 +7928,7 @@
         <v>91.672496322004903</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201411002</v>
       </c>
@@ -7965,7 +7960,7 @@
         <v>94.834000397139505</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201510279</v>
       </c>
@@ -7997,7 +7992,7 @@
         <v>93.698174076375494</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200811762</v>
       </c>
@@ -8029,7 +8024,7 @@
         <v>88.662697512091498</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>200910278</v>
       </c>
@@ -8061,7 +8056,7 @@
         <v>92.362793402228704</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200910517</v>
       </c>
@@ -8093,7 +8088,7 @@
         <v>87.546009536831505</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201320527</v>
       </c>
@@ -8125,7 +8120,7 @@
         <v>92.4625929385532</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200811577</v>
       </c>
@@ -8157,7 +8152,7 @@
         <v>88.840086802212497</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200820550</v>
       </c>
@@ -8189,7 +8184,7 @@
         <v>87.936262902429107</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201410667</v>
       </c>
@@ -8221,7 +8216,7 @@
         <v>92.704267920606398</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201510766</v>
       </c>
@@ -8253,7 +8248,7 @@
         <v>89.173862521840505</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200820111</v>
       </c>
@@ -8285,7 +8280,7 @@
         <v>93.200020602583905</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201111621</v>
       </c>
@@ -8317,7 +8312,7 @@
         <v>95.380109965408096</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201011480</v>
       </c>
@@ -8349,7 +8344,7 @@
         <v>92.104198764394596</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200810473</v>
       </c>
@@ -8381,7 +8376,7 @@
         <v>89.544595490223998</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200812182</v>
       </c>
@@ -8413,7 +8408,7 @@
         <v>89.214384992704197</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200810964</v>
       </c>
@@ -8445,7 +8440,7 @@
         <v>93.900679956782497</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200810727</v>
       </c>
@@ -8477,7 +8472,7 @@
         <v>87.091995965827806</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200811782</v>
       </c>
@@ -8509,7 +8504,7 @@
         <v>88.277906499509498</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201420341</v>
       </c>
@@ -8541,7 +8536,7 @@
         <v>92.321730583442999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201510479</v>
       </c>
@@ -8573,7 +8568,7 @@
         <v>93.893121042393204</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201420239</v>
       </c>
@@ -8605,7 +8600,7 @@
         <v>88.068338264708402</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201510592</v>
       </c>
@@ -8637,7 +8632,7 @@
         <v>92.380334245766605</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201510696</v>
       </c>
@@ -8669,7 +8664,7 @@
         <v>90.478475346195296</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201410711</v>
       </c>
@@ -8701,7 +8696,7 @@
         <v>92.9700398184454</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201410827</v>
       </c>
@@ -8733,7 +8728,7 @@
         <v>95.390482229345196</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201420499</v>
       </c>
@@ -8765,7 +8760,7 @@
         <v>93.712674528490794</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201510808</v>
       </c>
@@ -8797,7 +8792,7 @@
         <v>89.2728652078236</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201510462</v>
       </c>
@@ -8829,7 +8824,7 @@
         <v>93.243080860570998</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201420355</v>
       </c>
@@ -8861,7 +8856,7 @@
         <v>88.910257670354994</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>200811641</v>
       </c>
@@ -8893,7 +8888,7 @@
         <v>93.873700292068406</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200911498</v>
       </c>
@@ -8925,7 +8920,7 @@
         <v>92.457915722048895</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201410238</v>
       </c>
@@ -8957,7 +8952,7 @@
         <v>94.8294578076558</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>200920101</v>
       </c>
@@ -8989,7 +8984,7 @@
         <v>94.588055757490906</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201010496</v>
       </c>
@@ -9021,7 +9016,7 @@
         <v>88.088933435289704</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>200910735</v>
       </c>
@@ -9053,7 +9048,7 @@
         <v>89.492764020721594</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201020262</v>
       </c>
@@ -9085,7 +9080,7 @@
         <v>91.368613263528005</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201311281</v>
       </c>
@@ -9117,7 +9112,7 @@
         <v>94.517597096064193</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201210480</v>
       </c>
@@ -9149,7 +9144,7 @@
         <v>88.054927713558399</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201410184</v>
       </c>
@@ -9181,7 +9176,7 @@
         <v>88.246417128920697</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201220450</v>
       </c>
@@ -9213,7 +9208,7 @@
         <v>91.8197288268817</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201320347</v>
       </c>
@@ -9245,7 +9240,7 @@
         <v>88.239244603661504</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201011123</v>
       </c>
@@ -9277,7 +9272,7 @@
         <v>92.751026976679</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>200920397</v>
       </c>
@@ -9309,7 +9304,7 @@
         <v>93.370368576966001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201410364</v>
       </c>
@@ -9341,7 +9336,7 @@
         <v>93.072333215155695</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201010780</v>
       </c>
@@ -9373,7 +9368,7 @@
         <v>92.498058382099899</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201010798</v>
       </c>
@@ -9405,7 +9400,7 @@
         <v>94.045902401959594</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200710833</v>
       </c>
@@ -9437,7 +9432,7 @@
         <v>94.906797909116804</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>200910243</v>
       </c>
@@ -9469,7 +9464,7 @@
         <v>88.390030892315096</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>200910842</v>
       </c>
@@ -9501,7 +9496,7 @@
         <v>93.505361934507107</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201020408</v>
       </c>
@@ -9533,7 +9528,7 @@
         <v>94.230890454302397</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201110334</v>
       </c>
@@ -9565,7 +9560,7 @@
         <v>87.589875715202695</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>200811564</v>
       </c>
@@ -9597,7 +9592,7 @@
         <v>87.951683513278894</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201410472</v>
       </c>
@@ -9629,7 +9624,7 @@
         <v>91.816943225430293</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>200810566</v>
       </c>
@@ -9661,7 +9656,7 @@
         <v>87.620424410995497</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201410609</v>
       </c>
@@ -9693,7 +9688,7 @@
         <v>93.350327692050598</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>201610602</v>
       </c>
@@ -9725,7 +9720,7 @@
         <v>87.398669755704503</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>201520430</v>
       </c>
@@ -9757,7 +9752,7 @@
         <v>93.356559278434801</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>201610471</v>
       </c>
@@ -9789,7 +9784,7 @@
         <v>91.529393314864294</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>201520201</v>
       </c>
@@ -9821,7 +9816,7 @@
         <v>93.340333929367901</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>201010508</v>
       </c>
@@ -9853,7 +9848,7 @@
         <v>92.554905848919802</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>201311122</v>
       </c>
@@ -9885,7 +9880,7 @@
         <v>91.870337216767396</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>201610689</v>
       </c>
@@ -9917,7 +9912,7 @@
         <v>93.341818502541599</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>201110326</v>
       </c>
@@ -9949,7 +9944,7 @@
         <v>88.389770449801603</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>201211581</v>
       </c>
@@ -9981,7 +9976,7 @@
         <v>92.271523312959701</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>201410728</v>
       </c>
@@ -10013,7 +10008,7 @@
         <v>88.343279465603302</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>201110281</v>
       </c>
@@ -10051,16 +10046,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA433B2-638D-4AAD-B863-A74925E25923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10089,7 +10084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>200710633</v>
       </c>
@@ -10118,7 +10113,7 @@
         <v>91.830740558341802</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200810347</v>
       </c>
@@ -10147,7 +10142,7 @@
         <v>79.119128288654593</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200810097</v>
       </c>
@@ -10176,7 +10171,7 @@
         <v>79.433201212689099</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200920109</v>
       </c>
@@ -10205,7 +10200,7 @@
         <v>94.156352477429607</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200710595</v>
       </c>
@@ -10234,7 +10229,7 @@
         <v>93.644475807487296</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>200830011</v>
       </c>
@@ -10263,7 +10258,7 @@
         <v>77.662389717604597</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>200710056</v>
       </c>
@@ -10292,7 +10287,7 @@
         <v>78.769437739209295</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>200811419</v>
       </c>
@@ -10321,7 +10316,7 @@
         <v>94.550545820992994</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>200710612</v>
       </c>
@@ -10350,7 +10345,7 @@
         <v>92.738970901296895</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200711085</v>
       </c>
@@ -10379,7 +10374,7 @@
         <v>91.537729799569206</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200710203</v>
       </c>
@@ -10408,7 +10403,7 @@
         <v>80.800372174322106</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200810151</v>
       </c>
@@ -10437,7 +10432,7 @@
         <v>79.396403755248301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>201420182</v>
       </c>
@@ -10466,7 +10461,7 @@
         <v>86.958386009833902</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>201510338</v>
       </c>
@@ -10495,7 +10490,7 @@
         <v>93.613785378455006</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>201410614</v>
       </c>
@@ -10524,7 +10519,7 @@
         <v>92.223396015728397</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200710831</v>
       </c>
@@ -10553,7 +10548,7 @@
         <v>79.776784733725805</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>200811521</v>
       </c>
@@ -10582,7 +10577,7 @@
         <v>80.789714803215901</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>201420124</v>
       </c>
@@ -10611,7 +10606,7 @@
         <v>80.129539974548507</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>201410929</v>
       </c>
@@ -10640,7 +10635,7 @@
         <v>80.644187605037402</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200920062</v>
       </c>
@@ -10669,7 +10664,7 @@
         <v>77.340905187723394</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200811348</v>
       </c>
@@ -10698,7 +10693,7 @@
         <v>92.672606518379695</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201010139</v>
       </c>
@@ -10727,7 +10722,7 @@
         <v>90.846378656180207</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>201420170</v>
       </c>
@@ -10756,7 +10751,7 @@
         <v>92.415269713491995</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>200920112</v>
       </c>
@@ -10785,7 +10780,7 @@
         <v>79.692366548449698</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>200911715</v>
       </c>
@@ -10814,7 +10809,7 @@
         <v>78.123128517967501</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>200920249</v>
       </c>
@@ -10843,7 +10838,7 @@
         <v>81.070884733912095</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201311270</v>
       </c>
@@ -10872,7 +10867,7 @@
         <v>76.95125809324</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200811833</v>
       </c>
@@ -10901,7 +10896,7 @@
         <v>93.026413759689902</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200812224</v>
       </c>
@@ -10930,7 +10925,7 @@
         <v>80.810776968477796</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201220213</v>
       </c>
@@ -10959,7 +10954,7 @@
         <v>91.290586365767197</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201220692</v>
       </c>
@@ -10988,7 +10983,7 @@
         <v>88.965683567614207</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200810937</v>
       </c>
@@ -11017,7 +11012,7 @@
         <v>80.631716877652096</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200920326</v>
       </c>
@@ -11046,7 +11041,7 @@
         <v>81.607088133909897</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200810407</v>
       </c>
@@ -11075,7 +11070,7 @@
         <v>78.918930904558593</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201211200</v>
       </c>
@@ -11104,7 +11099,7 @@
         <v>93.704205114943406</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201411002</v>
       </c>
@@ -11133,7 +11128,7 @@
         <v>90.5293536977168</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201510279</v>
       </c>
@@ -11162,7 +11157,7 @@
         <v>93.8090707407666</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200811762</v>
       </c>
@@ -11191,7 +11186,7 @@
         <v>78.368371917828199</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>200910278</v>
       </c>
@@ -11220,7 +11215,7 @@
         <v>91.305631805222902</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200910517</v>
       </c>
@@ -11249,7 +11244,7 @@
         <v>79.214022771154703</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201320527</v>
       </c>
@@ -11278,7 +11273,7 @@
         <v>90.744159245495794</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200811577</v>
       </c>
@@ -11307,7 +11302,7 @@
         <v>81.434915695495903</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200820550</v>
       </c>
@@ -11336,7 +11331,7 @@
         <v>80.513871745602799</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201410667</v>
       </c>
@@ -11365,7 +11360,7 @@
         <v>88.825486867458807</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201510766</v>
       </c>
@@ -11394,7 +11389,7 @@
         <v>78.693792065692193</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200820111</v>
       </c>
@@ -11423,7 +11418,7 @@
         <v>94.295259774740899</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201111621</v>
       </c>
@@ -11452,7 +11447,7 @@
         <v>92.043827146061702</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201011480</v>
       </c>
@@ -11481,7 +11476,7 @@
         <v>93.490341996838097</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200810473</v>
       </c>
@@ -11510,7 +11505,7 @@
         <v>78.694481918415406</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200812182</v>
       </c>
@@ -11539,7 +11534,7 @@
         <v>79.2440984754721</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200810964</v>
       </c>
@@ -11568,7 +11563,7 @@
         <v>88.1340413278499</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200810727</v>
       </c>
@@ -11597,7 +11592,7 @@
         <v>78.930097054505794</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200811782</v>
       </c>
@@ -11626,7 +11621,7 @@
         <v>81.352563443449299</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201420341</v>
       </c>
@@ -11655,7 +11650,7 @@
         <v>90.027010895324906</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201510479</v>
       </c>
@@ -11684,7 +11679,7 @@
         <v>92.894047141619794</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201420239</v>
       </c>
@@ -11713,7 +11708,7 @@
         <v>79.330416694689404</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201510592</v>
       </c>
@@ -11742,7 +11737,7 @@
         <v>90.599069323090006</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201510696</v>
       </c>
@@ -11771,7 +11766,7 @@
         <v>91.047827375374595</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201410711</v>
       </c>
@@ -11800,7 +11795,7 @@
         <v>93.988458536551093</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201410827</v>
       </c>
@@ -11829,7 +11824,7 @@
         <v>88.265465516246294</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201420499</v>
       </c>
@@ -11858,7 +11853,7 @@
         <v>91.135691199326502</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201510808</v>
       </c>
@@ -11887,7 +11882,7 @@
         <v>78.942315204940499</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201510462</v>
       </c>
@@ -11916,7 +11911,7 @@
         <v>90.150872753180593</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201420355</v>
       </c>
@@ -11945,7 +11940,7 @@
         <v>77.910460406486294</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>200811641</v>
       </c>
@@ -11974,7 +11969,7 @@
         <v>92.760722919282003</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200911498</v>
       </c>
@@ -12003,7 +11998,7 @@
         <v>87.7889350952303</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201410238</v>
       </c>
@@ -12032,7 +12027,7 @@
         <v>90.044883623801596</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>200920101</v>
       </c>
@@ -12061,7 +12056,7 @@
         <v>94.733051550494594</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201010496</v>
       </c>
@@ -12090,7 +12085,7 @@
         <v>81.020689294006402</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>200910735</v>
       </c>
@@ -12119,7 +12114,7 @@
         <v>81.601505058936297</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201020262</v>
       </c>
@@ -12148,7 +12143,7 @@
         <v>90.8036511505954</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201311281</v>
       </c>
@@ -12177,7 +12172,7 @@
         <v>90.406324698720894</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201210480</v>
       </c>
@@ -12206,7 +12201,7 @@
         <v>76.763968712302002</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201410184</v>
       </c>
@@ -12235,7 +12230,7 @@
         <v>78.373012563128199</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201220450</v>
       </c>
@@ -12264,7 +12259,7 @@
         <v>91.317144928340497</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201320347</v>
       </c>
@@ -12293,7 +12288,7 @@
         <v>80.824698904377698</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201011123</v>
       </c>
@@ -12322,7 +12317,7 @@
         <v>90.816121877980606</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>200920397</v>
       </c>
@@ -12351,7 +12346,7 @@
         <v>93.631062650428504</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201410364</v>
       </c>
@@ -12380,7 +12375,7 @@
         <v>90.707376962648894</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201010780</v>
       </c>
@@ -12409,7 +12404,7 @@
         <v>86.142912713081103</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201010798</v>
       </c>
@@ -12438,7 +12433,7 @@
         <v>93.817590675575005</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200710833</v>
       </c>
@@ -12467,7 +12462,7 @@
         <v>90.500024174596902</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>200910243</v>
       </c>
@@ -12496,7 +12491,7 @@
         <v>78.8687354646529</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>200910842</v>
       </c>
@@ -12525,7 +12520,7 @@
         <v>94.229242364994093</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201020408</v>
       </c>
@@ -12554,7 +12549,7 @@
         <v>92.383459874521606</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201110334</v>
       </c>
@@ -12583,7 +12578,7 @@
         <v>81.154179415632299</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>200811564</v>
       </c>
@@ -12612,7 +12607,7 @@
         <v>78.431365790078004</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201410472</v>
       </c>
@@ -12641,7 +12636,7 @@
         <v>93.769193417354401</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>200810566</v>
       </c>
@@ -12670,7 +12665,7 @@
         <v>80.601807072623004</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201410609</v>
       </c>
@@ -12699,7 +12694,7 @@
         <v>92.547817405444405</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>201610602</v>
       </c>
@@ -12728,7 +12723,7 @@
         <v>78.582038787457407</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>201520430</v>
       </c>
@@ -12757,7 +12752,7 @@
         <v>89.786770288528501</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>201610471</v>
       </c>
@@ -12786,7 +12781,7 @@
         <v>89.0999350450316</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>201520201</v>
       </c>
@@ -12815,7 +12810,7 @@
         <v>89.914567764367007</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>201010508</v>
       </c>
@@ -12844,7 +12839,7 @@
         <v>92.473476309365196</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>201311122</v>
       </c>
@@ -12873,7 +12868,7 @@
         <v>87.474918499669997</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>201610689</v>
       </c>
@@ -12902,7 +12897,7 @@
         <v>93.887291126354199</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>201110326</v>
       </c>
@@ -12931,7 +12926,7 @@
         <v>77.974758856174105</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>201211581</v>
       </c>
@@ -12960,7 +12955,7 @@
         <v>95.555065526488605</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>201410728</v>
       </c>
@@ -12989,7 +12984,7 @@
         <v>81.592042694454193</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>201110281</v>
       </c>
@@ -13024,20 +13019,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584475FD-E240-4E8A-8998-E648F04E5FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13060,7 +13055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>200710633</v>
       </c>
@@ -13083,7 +13078,7 @@
         <v>89.498110085847003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200810347</v>
       </c>
@@ -13106,7 +13101,7 @@
         <v>81.043858484396296</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200810097</v>
       </c>
@@ -13129,7 +13124,7 @@
         <v>77.629858958191505</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200920109</v>
       </c>
@@ -13152,7 +13147,7 @@
         <v>94.270375761629495</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200710595</v>
       </c>
@@ -13175,7 +13170,7 @@
         <v>92.602514504721299</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>200830011</v>
       </c>
@@ -13198,7 +13193,7 @@
         <v>84.046711335275702</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>200710056</v>
       </c>
@@ -13221,7 +13216,7 @@
         <v>78.720138708305697</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>200811419</v>
       </c>
@@ -13244,7 +13239,7 @@
         <v>93.180096011515204</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>200710612</v>
       </c>
@@ -13267,7 +13262,7 @@
         <v>89.682879069576202</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200711085</v>
       </c>
@@ -13290,7 +13285,7 @@
         <v>88.366221627865599</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200710203</v>
       </c>
@@ -13313,7 +13308,7 @@
         <v>78.6369212925715</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200810151</v>
       </c>
@@ -13336,7 +13331,7 @@
         <v>81.002249776529197</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>201420182</v>
       </c>
@@ -13359,7 +13354,7 @@
         <v>92.644123212588397</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>201510338</v>
       </c>
@@ -13382,7 +13377,7 @@
         <v>93.323256287377305</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>201410614</v>
       </c>
@@ -13405,7 +13400,7 @@
         <v>92.376136813125001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200710831</v>
       </c>
@@ -13428,7 +13423,7 @@
         <v>77.177103574998895</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>200811521</v>
       </c>
@@ -13451,7 +13446,7 @@
         <v>78.720138708305697</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>201420124</v>
       </c>
@@ -13474,7 +13469,7 @@
         <v>80.549494393336602</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>201410929</v>
       </c>
@@ -13497,7 +13492,7 @@
         <v>80.632711809070798</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200920062</v>
       </c>
@@ -13520,7 +13515,7 @@
         <v>79.953578734282004</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200811348</v>
       </c>
@@ -13543,7 +13538,7 @@
         <v>92.459354228859297</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201010139</v>
       </c>
@@ -13566,7 +13561,7 @@
         <v>91.637060878208402</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>201420170</v>
       </c>
@@ -13589,7 +13584,7 @@
         <v>88.634208027328995</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>200920112</v>
       </c>
@@ -13612,7 +13607,7 @@
         <v>78.761747416172895</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>200911715</v>
       </c>
@@ -13635,7 +13630,7 @@
         <v>81.866151835047106</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>200920249</v>
       </c>
@@ -13658,7 +13653,7 @@
         <v>81.043858484396296</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201311270</v>
       </c>
@@ -13681,7 +13676,7 @@
         <v>82.545284909835999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200811833</v>
       </c>
@@ -13704,7 +13699,7 @@
         <v>97.005242213045506</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200812224</v>
       </c>
@@ -13727,7 +13722,7 @@
         <v>78.6369212925715</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201220213</v>
       </c>
@@ -13750,7 +13745,7 @@
         <v>88.366221627865599</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201220692</v>
       </c>
@@ -13773,7 +13768,7 @@
         <v>91.6786695860755</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200810937</v>
       </c>
@@ -13796,7 +13791,7 @@
         <v>77.856236649787704</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200920326</v>
       </c>
@@ -13819,7 +13814,7 @@
         <v>81.270236175992594</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200810407</v>
       </c>
@@ -13842,7 +13837,7 @@
         <v>83.182809276757695</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201211200</v>
       </c>
@@ -13865,7 +13860,7 @@
         <v>92.131424969268096</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201411002</v>
       </c>
@@ -13888,7 +13883,7 @@
         <v>94.639913729087795</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201510279</v>
       </c>
@@ -13911,7 +13906,7 @@
         <v>90.999536511286706</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200811762</v>
       </c>
@@ -13934,7 +13929,7 @@
         <v>80.859089500667096</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>200910278</v>
       </c>
@@ -13957,7 +13952,7 @@
         <v>91.8634385698047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200910517</v>
       </c>
@@ -13980,7 +13975,7 @@
         <v>82.092529526643403</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201320527</v>
       </c>
@@ -14003,7 +13998,7 @@
         <v>95.092669112280404</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200811577</v>
       </c>
@@ -14026,7 +14021,7 @@
         <v>83.182809276757695</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200820550</v>
       </c>
@@ -14049,7 +14044,7 @@
         <v>77.588250250324293</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201410667</v>
       </c>
@@ -14072,7 +14067,7 @@
         <v>95.277438096009504</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201510766</v>
       </c>
@@ -14095,7 +14090,7 @@
         <v>82.318907218239701</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200820111</v>
       </c>
@@ -14118,7 +14113,7 @@
         <v>91.738612446203305</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201111621</v>
       </c>
@@ -14141,7 +14136,7 @@
         <v>91.101088079281595</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201011480</v>
       </c>
@@ -14164,7 +14159,7 @@
         <v>92.316193952997295</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200810473</v>
       </c>
@@ -14187,7 +14182,7 @@
         <v>79.316054367360294</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200812182</v>
       </c>
@@ -14210,7 +14205,7 @@
         <v>77.177103574998895</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200810964</v>
       </c>
@@ -14233,7 +14228,7 @@
         <v>93.877563238564704</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200810727</v>
       </c>
@@ -14256,7 +14251,7 @@
         <v>81.002249776529197</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200811782</v>
       </c>
@@ -14279,7 +14274,7 @@
         <v>82.134138234510601</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201420341</v>
       </c>
@@ -14302,7 +14297,7 @@
         <v>89.456501377979905</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201510479</v>
       </c>
@@ -14325,7 +14320,7 @@
         <v>93.013661180046697</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201420239</v>
       </c>
@@ -14348,7 +14343,7 @@
         <v>78.452152308842301</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201510592</v>
       </c>
@@ -14371,7 +14366,7 @@
         <v>94.043998070033197</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201510696</v>
       </c>
@@ -14391,7 +14386,7 @@
         <v>95.462207079738704</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201410711</v>
       </c>
@@ -14414,7 +14409,7 @@
         <v>91.905047277671798</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201410827</v>
       </c>
@@ -14437,7 +14432,7 @@
         <v>87.502319569347605</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201420499</v>
       </c>
@@ -14460,7 +14455,7 @@
         <v>88.818977011058195</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201510808</v>
       </c>
@@ -14483,7 +14478,7 @@
         <v>76.950725883402598</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201510462</v>
       </c>
@@ -14506,7 +14501,7 @@
         <v>93.096878595781007</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201420355</v>
       </c>
@@ -14529,7 +14524,7 @@
         <v>80.221565133745401</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>200811641</v>
       </c>
@@ -14552,7 +14547,7 @@
         <v>86.2272708355042</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200911498</v>
       </c>
@@ -14575,7 +14570,7 @@
         <v>91.184305495015906</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201410238</v>
       </c>
@@ -14598,7 +14593,7 @@
         <v>93.817620378436999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>200920101</v>
       </c>
@@ -14621,7 +14616,7 @@
         <v>92.376136813125001</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201010496</v>
       </c>
@@ -14644,7 +14639,7 @@
         <v>78.535369724576597</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>200910735</v>
       </c>
@@ -14667,7 +14662,7 @@
         <v>82.503676201968901</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201020262</v>
       </c>
@@ -14690,7 +14685,7 @@
         <v>90.916319095552396</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201311281</v>
       </c>
@@ -14713,7 +14708,7 @@
         <v>88.634208027328995</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201210480</v>
       </c>
@@ -14736,7 +14731,7 @@
         <v>81.270236175992594</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201410184</v>
       </c>
@@ -14759,7 +14754,7 @@
         <v>82.134138234510601</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201220450</v>
       </c>
@@ -14782,7 +14777,7 @@
         <v>86.2272708355042</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201320347</v>
       </c>
@@ -14805,7 +14800,7 @@
         <v>78.082614341384001</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201011123</v>
       </c>
@@ -14828,7 +14823,7 @@
         <v>94.639913729087795</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>200920397</v>
       </c>
@@ -14851,7 +14846,7 @@
         <v>88.550990611594798</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201410364</v>
       </c>
@@ -14874,7 +14869,7 @@
         <v>86.638417510829598</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201010780</v>
       </c>
@@ -14897,7 +14892,7 @@
         <v>90.814767527557606</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201010798</v>
       </c>
@@ -14920,7 +14915,7 @@
         <v>92.232976537262999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200710833</v>
       </c>
@@ -14943,7 +14938,7 @@
         <v>93.180096011515204</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>200910243</v>
       </c>
@@ -14966,7 +14961,7 @@
         <v>79.172894091498307</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>200910842</v>
       </c>
@@ -14989,7 +14984,7 @@
         <v>89.950865469039599</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201020408</v>
       </c>
@@ -15012,7 +15007,7 @@
         <v>94.783074004949796</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201110334</v>
       </c>
@@ -15035,7 +15030,7 @@
         <v>82.3605159261068</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>200811564</v>
       </c>
@@ -15058,7 +15053,7 @@
         <v>80.447942825341698</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201410472</v>
       </c>
@@ -15081,7 +15076,7 @@
         <v>86.721634926563894</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>200810566</v>
       </c>
@@ -15104,7 +15099,7 @@
         <v>78.720138708305697</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201410609</v>
       </c>
@@ -15127,7 +15122,7 @@
         <v>93.138487303648105</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>201610602</v>
       </c>
@@ -15150,7 +15145,7 @@
         <v>79.316054367360294</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>201520430</v>
       </c>
@@ -15173,7 +15168,7 @@
         <v>92.542571644593494</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>201610471</v>
       </c>
@@ -15196,7 +15191,7 @@
         <v>93.877563238564704</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>201520201</v>
       </c>
@@ -15219,7 +15214,7 @@
         <v>89.867648053305302</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>201010508</v>
       </c>
@@ -15242,7 +15237,7 @@
         <v>95.956571170798398</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>201311122</v>
       </c>
@@ -15265,7 +15260,7 @@
         <v>86.864795202425896</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>201610689</v>
       </c>
@@ -15288,7 +15283,7 @@
         <v>91.082753927021002</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>201110326</v>
       </c>
@@ -15311,7 +15306,7 @@
         <v>78.082614341384001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>201211581</v>
       </c>
@@ -15334,7 +15329,7 @@
         <v>94.145549638028101</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>201410728</v>
       </c>
@@ -15357,7 +15352,7 @@
         <v>77.588250250324293</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>201110281</v>
       </c>
